--- a/python/exel/links.xlsx
+++ b/python/exel/links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-10-16 16:46:27</t>
+          <t>2023-10-16 18:06:27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>172.24.0.1</t>
+          <t>172.29.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bartek</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-10-16 18:16:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>192.168.16.1</t>
         </is>
       </c>
     </row>

--- a/python/exel/links.xlsx
+++ b/python/exel/links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,15 +424,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>IP</t>
         </is>
@@ -441,34 +446,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bartek</t>
+          <t>Staszek</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-10-16 21:40:26</t>
+          <t>https://manpages.ubuntu.com/manpages/trusty/pl/man1/mc.1.html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>172.25.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dawda</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-10-16 21:40:29</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>172.25.0.1</t>
+          <t>2023-10-18 19:43:36</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>172.30.0.1</t>
         </is>
       </c>
     </row>

--- a/python/exel/links.xlsx
+++ b/python/exel/links.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-10-18 19:43:36</t>
+          <t>2023-10-18 20:46:52</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>172.30.0.1</t>
+          <t>192.168.240.1</t>
         </is>
       </c>
     </row>

--- a/python/exel/links.xlsx
+++ b/python/exel/links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,15 +424,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>IP</t>
         </is>
@@ -441,17 +446,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bartek</t>
+          <t>Piotrek</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-10-16 16:46:27</t>
+          <t>https://manpages.ubuntu.com/manpages/trusty/pl/man1/mc.1.html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>172.24.0.1</t>
+          <t>2023-10-23 19:59:58</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>172.31.0.1</t>
         </is>
       </c>
     </row>
